--- a/database/seeds/Excels/EP para probar copy 2.xlsx
+++ b/database/seeds/Excels/EP para probar copy 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debi\Documents\Trabajo\Planillas inspecciones\Arregladas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/secondary/Documents/work/debi/inspecciones/database/seeds/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62DB4146-5370-DF43-B51C-7E69BFD9169E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="19200" windowHeight="7320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>CUIT</t>
   </si>
@@ -63,9 +64,6 @@
   </si>
   <si>
     <t>SOLDADO DE LA INDEPENDENCIA</t>
-  </si>
-  <si>
-    <t>DELLEPIANE, LUIS, TTE. GRAL.</t>
   </si>
   <si>
     <t>EP</t>
@@ -95,7 +93,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +168,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -447,49 +445,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.6328125" customWidth="1"/>
+    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>2</v>
@@ -507,7 +505,7 @@
         <v>6</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>7</v>
@@ -525,21 +523,21 @@
         <v>0</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3">
         <v>900002722910</v>
       </c>
       <c r="D2" s="4">
-        <v>43360</v>
+        <v>42204</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>11</v>
@@ -549,29 +547,6 @@
       </c>
       <c r="G2" s="2">
         <v>930</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="3">
-        <v>900002721210</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43360</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2">
-        <v>5900</v>
       </c>
     </row>
   </sheetData>
